--- a/Aula-3/Produtos Novo.xlsx
+++ b/Aula-3/Produtos Novo.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.19</v>
+        <v>5.18</v>
       </c>
       <c r="E2" t="n">
-        <v>5185.65</v>
+        <v>5183.65</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>7259.91</v>
+        <v>7257.11</v>
       </c>
     </row>
     <row r="3">
@@ -515,13 +515,13 @@
         <v>5.12</v>
       </c>
       <c r="E3" t="n">
-        <v>23057.53</v>
+        <v>23018.85</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>46115.07</v>
+        <v>46037.7</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.19</v>
+        <v>5.18</v>
       </c>
       <c r="E4" t="n">
-        <v>4667.08</v>
+        <v>4665.28</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>7934.03</v>
+        <v>7930.97</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.19</v>
+        <v>5.18</v>
       </c>
       <c r="E5" t="n">
-        <v>4143.37</v>
+        <v>4141.78</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>7043.74</v>
+        <v>7041.02</v>
       </c>
     </row>
     <row r="6">
@@ -596,13 +596,13 @@
         <v>5.12</v>
       </c>
       <c r="E6" t="n">
-        <v>15371.69</v>
+        <v>15345.9</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>29206.21</v>
+        <v>29157.21</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.19</v>
+        <v>5.18</v>
       </c>
       <c r="E7" t="n">
-        <v>2491.63</v>
+        <v>2490.66</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>4983.25</v>
+        <v>4981.33</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>287.26</v>
+        <v>287.78</v>
       </c>
       <c r="E8" t="n">
-        <v>5745.2</v>
+        <v>5755.6</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>6606.98</v>
+        <v>6618.94</v>
       </c>
     </row>
   </sheetData>

--- a/Aula-3/Produtos Novo.xlsx
+++ b/Aula-3/Produtos Novo.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="E2" t="n">
-        <v>5183.65</v>
+        <v>5221.75</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>7257.11</v>
+        <v>7310.45</v>
       </c>
     </row>
     <row r="3">
@@ -515,13 +515,13 @@
         <v>5.12</v>
       </c>
       <c r="E3" t="n">
-        <v>23018.85</v>
+        <v>23030.55</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>46037.7</v>
+        <v>46061.1</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="E4" t="n">
-        <v>4665.28</v>
+        <v>4699.57</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>7930.97</v>
+        <v>7989.27</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="E5" t="n">
-        <v>4141.78</v>
+        <v>4172.22</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>7041.02</v>
+        <v>7092.77</v>
       </c>
     </row>
     <row r="6">
@@ -596,13 +596,13 @@
         <v>5.12</v>
       </c>
       <c r="E6" t="n">
-        <v>15345.9</v>
+        <v>15353.7</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>29157.21</v>
+        <v>29172.03</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="E7" t="n">
-        <v>2490.66</v>
+        <v>2508.97</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>4981.33</v>
+        <v>5017.94</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>287.78</v>
+        <v>288.75</v>
       </c>
       <c r="E8" t="n">
-        <v>5755.6</v>
+        <v>5775</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>6618.94</v>
+        <v>6641.25</v>
       </c>
     </row>
   </sheetData>
